--- a/django_backend/var/sys/views/core/UsrGrpMnt-v0.xlsx
+++ b/django_backend/var/sys/views/core/UsrGrpMnt-v0.xlsx
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C13" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
@@ -2229,7 +2229,11 @@
       <c r="F42" s="12" t="n"/>
       <c r="G42" s="12" t="inlineStr"/>
       <c r="H42" s="12" t="inlineStr"/>
-      <c r="I42" s="12" t="n"/>
+      <c r="I42" s="12" t="inlineStr">
+        <is>
+          <t>IconAndText</t>
+        </is>
+      </c>
       <c r="J42" s="12" t="inlineStr">
         <is>
           <t>icon:images/new_button.gif</t>
@@ -2398,12 +2402,7 @@
           <t>Plugin</t>
         </is>
       </c>
-      <c r="J47" s="12" t="inlineStr">
-        <is>
-          <t>iconCurrent:images/current_sbutton.gif
-iconExpand:images/expand_sbutton.gif</t>
-        </is>
-      </c>
+      <c r="J47" s="12" t="n"/>
       <c r="K47" s="12" t="n"/>
       <c r="L47" s="12" t="n"/>
       <c r="M47" s="12" t="n"/>
